--- a/map.xlsx
+++ b/map.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Progrik\Joe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1101C281-2FA9-42CB-AA5D-8D9F6162D089}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741B52C-656C-46CA-857D-22F6A3A6113B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7200" xr2:uid="{4214E37A-D543-408A-B672-507CEEEB1CD0}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7200" xr2:uid="{4214E37A-D543-408A-B672-507CEEEB1CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,12 +408,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4366D-6927-4CBE-AA56-C43EF90A78A3}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/map.xlsx
+++ b/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Progrik\Joe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741B52C-656C-46CA-857D-22F6A3A6113B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C79E7A-7800-4C5F-AE5F-CE571AF4DF4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7200" xr2:uid="{4214E37A-D543-408A-B672-507CEEEB1CD0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7200" xr2:uid="{4214E37A-D543-408A-B672-507CEEEB1CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
